--- a/出題情報.xlsx
+++ b/出題情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\趣味\クイズ関連\絵画クイズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39275EF1-8E86-478A-BF82-8901EC1B80FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E88A222-9B32-432B-895D-5CF0333A20F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="915" windowWidth="12750" windowHeight="10845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-405" yWindow="420" windowWidth="12750" windowHeight="10845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作品名" sheetId="1" r:id="rId1"/>
@@ -362,22 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>白豹を抱く貴婦人</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>キフジン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ヴィーナスの誕生</t>
     <rPh sb="6" eb="8">
       <t>タンジョウ</t>
@@ -749,6 +733,22 @@
   </si>
   <si>
     <t>ジュゼッペ・アルチンボルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白貂を抱く貴婦人</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>キフジン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>10</v>
@@ -1323,46 +1323,46 @@
     </row>
     <row r="16" spans="1:3" ht="37.5">
       <c r="A16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="C17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1387,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC376ED-1ADA-4FD8-8B33-F48DB0B326BA}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1425,7 +1425,7 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C3" s="14"/>
     </row>
@@ -1442,13 +1442,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1489,13 +1489,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1520,13 +1520,13 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1534,21 +1534,21 @@
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1558,7 +1558,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
@@ -1585,79 +1585,79 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
